--- a/banhang24/Template/ExportExcel/Teamplate_HoaDonDatHang_ChiTiet.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_HoaDonDatHang_ChiTiet.xlsx
@@ -525,8 +525,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="17">
-        <f>SUM($E$4:E27)</f>
+        <f>SUM(E$4:E27)</f>
         <v>0</v>
       </c>
       <c r="J28" s="12"/>
@@ -905,7 +905,7 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="17">
-        <f>SUMPRODUCT(E4:E27,F4:F27)</f>
+        <f>SUMPRODUCT(E$4:E27,F$4:F27)</f>
         <v>0</v>
       </c>
       <c r="J29" s="12"/>
@@ -922,7 +922,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="17">
-        <f>SUMPRODUCT(E4:E27,G4:G27)</f>
+        <f>SUMPRODUCT(E$4:E27,G$4:G27)</f>
         <v>0</v>
       </c>
       <c r="J30" s="12"/>
@@ -939,7 +939,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="17">
-        <f>SUMPRODUCT(E4:E27,H4:H27)</f>
+        <f>SUMPRODUCT(E$4:E27,H$4:H27)</f>
         <v>0</v>
       </c>
       <c r="J31" s="12"/>
@@ -956,7 +956,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="17">
-        <f>SUM($I$4:I27)</f>
+        <f>SUM(I$4:I27)</f>
         <v>0</v>
       </c>
       <c r="J32" s="12"/>
